--- a/DraftSheets/2020_DRAFT_SHEET_formatted.xlsx
+++ b/DraftSheets/2020_DRAFT_SHEET_formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewlee/Repositories/FantasyFootball/DraftSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB56B18-9CD9-0441-BAEE-6BD4C87D2013}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252EDB0D-DBD9-614F-B508-E471E39726FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="34980" windowHeight="21440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="500" windowWidth="34980" windowHeight="21440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DRAFT_BOARD" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DRAFT_BOARD!$A$1:$X$543</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5625" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5625" uniqueCount="1135">
   <si>
     <t>TIER</t>
   </si>
@@ -3427,6 +3435,9 @@
   </si>
   <si>
     <t>Rating 0-1 to estimate how explosively a player performed the previous year. A high score means they had more explosive performances</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -3526,7 +3537,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3826,8 +3848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W543"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3928,7 +3950,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -3999,7 +4021,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -4070,7 +4092,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -4141,7 +4163,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -4212,7 +4234,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -4283,7 +4305,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
@@ -4354,7 +4376,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -4425,7 +4447,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B9" s="5">
         <v>2</v>
@@ -4496,7 +4518,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B10" s="5">
         <v>2</v>
@@ -4567,7 +4589,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B11" s="5">
         <v>2</v>
@@ -4638,7 +4660,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B12" s="5">
         <v>2</v>
@@ -4709,7 +4731,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B13" s="5">
         <v>2</v>
@@ -4780,7 +4802,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B14" s="5">
         <v>2</v>
@@ -4851,7 +4873,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B15" s="5">
         <v>2</v>
@@ -4922,7 +4944,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
@@ -4993,7 +5015,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B17" s="5">
         <v>2</v>
@@ -5064,7 +5086,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B18" s="5">
         <v>3</v>
@@ -5135,7 +5157,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B19" s="5">
         <v>3</v>
@@ -5206,7 +5228,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B20" s="5">
         <v>3</v>
@@ -5277,7 +5299,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B21" s="5">
         <v>3</v>
@@ -5348,7 +5370,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B22" s="5">
         <v>3</v>
@@ -5417,7 +5439,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B23" s="5">
         <v>3</v>
@@ -5488,7 +5510,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B24" s="5">
         <v>3</v>
@@ -5559,7 +5581,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B25" s="5">
         <v>3</v>
@@ -5630,7 +5652,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B26" s="5">
         <v>3</v>
@@ -5701,7 +5723,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B27" s="5">
         <v>3</v>
@@ -5772,7 +5794,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B28" s="5">
         <v>3</v>
@@ -5843,7 +5865,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B29" s="5">
         <v>3</v>
@@ -5914,7 +5936,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B30" s="5">
         <v>3</v>
@@ -5985,7 +6007,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B31" s="5">
         <v>3</v>
@@ -6056,7 +6078,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B32" s="5">
         <v>3</v>
@@ -6127,7 +6149,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B33" s="5">
         <v>3</v>
@@ -6198,7 +6220,7 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B34" s="5">
         <v>3</v>
@@ -6269,7 +6291,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B35" s="5">
         <v>4</v>
@@ -6340,7 +6362,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B36" s="5">
         <v>4</v>
@@ -6411,7 +6433,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B37" s="5">
         <v>4</v>
@@ -6482,7 +6504,7 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B38" s="5">
         <v>4</v>
@@ -6553,7 +6575,7 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B39" s="5">
         <v>4</v>
@@ -6624,7 +6646,7 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B40" s="5">
         <v>4</v>
@@ -6695,7 +6717,7 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B41" s="5">
         <v>4</v>
@@ -6766,7 +6788,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B42" s="5">
         <v>4</v>
@@ -6837,7 +6859,7 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B43" s="5">
         <v>4</v>
@@ -6908,7 +6930,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B44" s="5">
         <v>4</v>
@@ -6979,7 +7001,7 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B45" s="5">
         <v>4</v>
@@ -7050,7 +7072,7 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B46" s="5">
         <v>4</v>
@@ -7121,7 +7143,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B47" s="5">
         <v>4</v>
@@ -7192,7 +7214,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B48" s="5">
         <v>4</v>
@@ -7263,7 +7285,7 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B49" s="5">
         <v>4</v>
@@ -7334,7 +7356,7 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B50" s="5">
         <v>4</v>
@@ -7405,7 +7427,7 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B51" s="5">
         <v>5</v>
@@ -7476,7 +7498,7 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B52" s="5">
         <v>5</v>
@@ -7547,7 +7569,7 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B53" s="5">
         <v>5</v>
@@ -7618,7 +7640,7 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B54" s="5">
         <v>5</v>
@@ -7689,7 +7711,7 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B55" s="5">
         <v>5</v>
@@ -7758,7 +7780,7 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B56" s="5">
         <v>5</v>
@@ -7829,7 +7851,7 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B57" s="5">
         <v>5</v>
@@ -7900,7 +7922,7 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B58" s="5">
         <v>5</v>
@@ -7971,7 +7993,7 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B59" s="5">
         <v>5</v>
@@ -8042,7 +8064,7 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B60" s="5">
         <v>5</v>
@@ -8113,7 +8135,7 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B61" s="5">
         <v>5</v>
@@ -8184,7 +8206,7 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B62" s="5">
         <v>5</v>
@@ -8253,7 +8275,7 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B63" s="5">
         <v>5</v>
@@ -8324,7 +8346,7 @@
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B64" s="5">
         <v>5</v>
@@ -8395,7 +8417,7 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B65" s="5">
         <v>5</v>
@@ -8466,7 +8488,7 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B66" s="5">
         <v>5</v>
@@ -8535,7 +8557,7 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B67" s="5">
         <v>5</v>
@@ -8606,7 +8628,7 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B68" s="5">
         <v>5</v>
@@ -8677,7 +8699,7 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B69" s="5">
         <v>5</v>
@@ -8748,7 +8770,7 @@
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B70" s="5">
         <v>5</v>
@@ -8819,7 +8841,7 @@
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B71" s="5">
         <v>5</v>
@@ -8888,7 +8910,7 @@
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B72" s="5">
         <v>5</v>
@@ -8959,7 +8981,7 @@
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B73" s="5">
         <v>6</v>
@@ -9030,7 +9052,7 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B74" s="5">
         <v>6</v>
@@ -9101,7 +9123,7 @@
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B75" s="5">
         <v>6</v>
@@ -9172,7 +9194,7 @@
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B76" s="5">
         <v>6</v>
@@ -9243,7 +9265,7 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B77" s="5">
         <v>6</v>
@@ -9314,7 +9336,7 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B78" s="5">
         <v>6</v>
@@ -9385,7 +9407,7 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B79" s="5">
         <v>6</v>
@@ -9456,7 +9478,7 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B80" s="5">
         <v>6</v>
@@ -9527,7 +9549,7 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B81" s="5">
         <v>6</v>
@@ -9598,7 +9620,7 @@
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B82" s="5">
         <v>6</v>
@@ -9669,7 +9691,7 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B83" s="5">
         <v>6</v>
@@ -9740,7 +9762,7 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B84" s="5">
         <v>6</v>
@@ -9811,7 +9833,7 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B85" s="5">
         <v>6</v>
@@ -9882,7 +9904,7 @@
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B86" s="5">
         <v>6</v>
@@ -9953,7 +9975,7 @@
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B87" s="5">
         <v>6</v>
@@ -10024,7 +10046,7 @@
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B88" s="5">
         <v>6</v>
@@ -10095,7 +10117,7 @@
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B89" s="5">
         <v>6</v>
@@ -10164,7 +10186,7 @@
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B90" s="5">
         <v>6</v>
@@ -10233,7 +10255,7 @@
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B91" s="5">
         <v>6</v>
@@ -10304,7 +10326,7 @@
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B92" s="5">
         <v>6</v>
@@ -10373,7 +10395,7 @@
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B93" s="5">
         <v>6</v>
@@ -10444,7 +10466,7 @@
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B94" s="5">
         <v>6</v>
@@ -10515,7 +10537,7 @@
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B95" s="5">
         <v>6</v>
@@ -10586,7 +10608,7 @@
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B96" s="5">
         <v>6</v>
@@ -10657,7 +10679,7 @@
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B97" s="5">
         <v>6</v>
@@ -10728,7 +10750,7 @@
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B98" s="5">
         <v>6</v>
@@ -10799,7 +10821,7 @@
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B99" s="5">
         <v>6</v>
@@ -10870,7 +10892,7 @@
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B100" s="5">
         <v>6</v>
@@ -10941,7 +10963,7 @@
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B101" s="5">
         <v>6</v>
@@ -11012,7 +11034,7 @@
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B102" s="5">
         <v>6</v>
@@ -11083,7 +11105,7 @@
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B103" s="5">
         <v>6</v>
@@ -11154,7 +11176,7 @@
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B104" s="5">
         <v>6</v>
@@ -11225,7 +11247,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B105" s="5">
         <v>6</v>
@@ -11296,7 +11318,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B106" s="5">
         <v>6</v>
@@ -11367,7 +11389,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B107" s="5">
         <v>6</v>
@@ -11438,7 +11460,7 @@
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B108" s="5">
         <v>6</v>
@@ -11509,7 +11531,7 @@
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B109" s="5">
         <v>6</v>
@@ -11580,7 +11602,7 @@
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B110" s="5">
         <v>7</v>
@@ -11651,7 +11673,7 @@
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B111" s="5">
         <v>7</v>
@@ -11722,7 +11744,7 @@
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B112" s="5">
         <v>7</v>
@@ -11793,7 +11815,7 @@
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B113" s="5">
         <v>7</v>
@@ -11864,7 +11886,7 @@
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B114" s="5">
         <v>7</v>
@@ -11935,7 +11957,7 @@
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B115" s="5">
         <v>7</v>
@@ -12077,7 +12099,7 @@
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B117" s="5">
         <v>7</v>
@@ -12148,7 +12170,7 @@
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B118" s="5">
         <v>7</v>
@@ -12217,7 +12239,7 @@
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B119" s="5">
         <v>7</v>
@@ -12430,7 +12452,7 @@
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B122" s="5">
         <v>7</v>
@@ -12572,7 +12594,7 @@
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B124" s="5">
         <v>7</v>
@@ -12643,7 +12665,7 @@
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B125" s="5">
         <v>7</v>
@@ -12785,7 +12807,7 @@
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B127" s="5">
         <v>7</v>
@@ -12925,7 +12947,7 @@
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B129" s="5">
         <v>7</v>
@@ -13280,7 +13302,7 @@
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B134" s="5">
         <v>7</v>
@@ -13351,7 +13373,7 @@
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B135" s="5">
         <v>7</v>
@@ -14201,7 +14223,7 @@
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B147" s="5">
         <v>8</v>
@@ -14625,7 +14647,7 @@
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B153" s="5">
         <v>8</v>
@@ -14974,7 +14996,7 @@
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B158" s="5">
         <v>8</v>
@@ -15323,7 +15345,7 @@
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B163" s="5">
         <v>8</v>
@@ -15597,7 +15619,7 @@
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B167" s="5">
         <v>8</v>
@@ -15804,7 +15826,7 @@
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B170" s="5">
         <v>8</v>
@@ -15869,7 +15891,7 @@
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B171" s="5">
         <v>8</v>
@@ -16005,7 +16027,7 @@
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B173" s="5">
         <v>8</v>
@@ -16632,7 +16654,7 @@
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B182" s="5">
         <v>8</v>
@@ -16768,7 +16790,7 @@
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B184" s="5">
         <v>9</v>
@@ -16833,7 +16855,7 @@
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B185" s="5">
         <v>9</v>
@@ -17456,7 +17478,7 @@
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B194" s="5">
         <v>9</v>
@@ -17740,7 +17762,7 @@
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B198" s="5">
         <v>9</v>
@@ -17805,7 +17827,7 @@
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B199" s="5">
         <v>9</v>
@@ -18775,7 +18797,7 @@
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B213" s="5">
         <v>9</v>
@@ -19658,7 +19680,7 @@
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B226" s="5">
         <v>9</v>
@@ -20064,7 +20086,7 @@
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B232" s="5">
         <v>9</v>
@@ -20200,7 +20222,7 @@
     </row>
     <row r="234" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B234" s="5">
         <v>9</v>
@@ -20407,7 +20429,7 @@
     </row>
     <row r="237" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B237" s="5">
         <v>9</v>
@@ -21854,7 +21876,7 @@
     </row>
     <row r="258" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
-        <v>28</v>
+        <v>1134</v>
       </c>
       <c r="B258" s="5">
         <v>10</v>
@@ -41765,7 +41787,7 @@
   </sheetData>
   <autoFilter ref="A1:X543" xr:uid="{4BD9A7B7-0DC3-AF45-AD9A-C060660C22D8}"/>
   <conditionalFormatting sqref="J2:J543">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -41775,7 +41797,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L543">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -41785,13 +41807,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M543">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:W543">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$E$2="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
